--- a/correcciones.xlsx
+++ b/correcciones.xlsx
@@ -158,10 +158,10 @@
     <t>54-59</t>
   </si>
   <si>
-    <t>19, 25, 28, 29, 52, 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19, 21, 25, 27, 29, </t>
+    <t>19, 21, 25, 27, 28, 29, 52, 80</t>
+  </si>
+  <si>
+    <t>A lo largo del documento se cambio 'sistema' por 'software' donde se necesitaba</t>
   </si>
 </sst>
 </file>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -317,6 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +635,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="38" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>16</v>
@@ -937,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="38" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>17</v>
@@ -955,7 +956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -969,7 +970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="5" t="s">
         <v>19</v>
@@ -987,7 +988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
@@ -1005,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -1016,12 +1017,17 @@
       <c r="D22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="17">
+        <v>43269</v>
+      </c>
       <c r="F22" s="18">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="38" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="38" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
@@ -1031,15 +1037,17 @@
       <c r="C23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="18">
+      <c r="D23" s="8">
+        <v>13</v>
+      </c>
+      <c r="E23" s="19">
+        <v>43269</v>
+      </c>
+      <c r="F23" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="8" t="s">
         <v>24</v>

--- a/correcciones.xlsx
+++ b/correcciones.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Estudios posteriores: definirlos más específicamente.  Enfocarlos en los hallazgos del estudio.</t>
   </si>
@@ -162,6 +162,39 @@
   </si>
   <si>
     <t>A lo largo del documento se cambio 'sistema' por 'software' donde se necesitaba</t>
+  </si>
+  <si>
+    <t>71-74</t>
+  </si>
+  <si>
+    <t>Se añadio explicaciones detalladas a la creación de cada pantalla</t>
+  </si>
+  <si>
+    <t>82-85</t>
+  </si>
+  <si>
+    <t>Se explico a detalle sistemas analogos presentados en latinoamerica para recoleccion de reclamos o peticiones en salud.</t>
+  </si>
+  <si>
+    <t>Marco Teorico / Discusión</t>
+  </si>
+  <si>
+    <t>24-25 / 82-85</t>
+  </si>
+  <si>
+    <t>Marco Teorico: Se agrego parrafo sobre busqueda bibliografica de sistemas similares. Discusión: Se agrego en extensión explicación sobre la funcionalidad de dos sistemas simialres presentados en latinoamerica.</t>
+  </si>
+  <si>
+    <t>Se agrego un parrafo sobre el uso de UCD en otros sistemas inofmraticos clinicos que utilizaran de forma trascendental la opinion de usuarios para reforzar lo encontrado</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>Se agrego un parrafo de explicación sobre las variables cualitativas a utilizarse para las pruebas de usuario para ser más explicito</t>
+  </si>
+  <si>
+    <t>Se restructuro toda la parte de resultados para la fase exploratoria</t>
   </si>
 </sst>
 </file>
@@ -237,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -271,11 +304,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -318,6 +360,13 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,14 +683,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -751,10 +801,17 @@
       <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6">
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17">
+        <v>43272</v>
+      </c>
+      <c r="F6" s="16">
         <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.25">
@@ -796,18 +853,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="18">
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="17">
+        <v>43271</v>
+      </c>
+      <c r="F9" s="16">
         <v>8</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -873,9 +937,14 @@
         <v>35</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13">
+      <c r="E13" s="17">
+        <v>43272</v>
+      </c>
+      <c r="F13" s="22">
         <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -904,10 +973,17 @@
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="18">
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="17">
+        <v>43271</v>
+      </c>
+      <c r="F15" s="16">
         <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -920,7 +996,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16">
+      <c r="F16" s="18">
         <v>15</v>
       </c>
     </row>
@@ -934,7 +1010,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17">
+      <c r="F17" s="18">
         <v>16</v>
       </c>
     </row>
@@ -956,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="65" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -964,10 +1040,17 @@
       <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19">
+      <c r="D19" s="5">
+        <v>86</v>
+      </c>
+      <c r="E19" s="17">
+        <v>43271</v>
+      </c>
+      <c r="F19" s="16">
         <v>18</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1020,7 +1103,7 @@
       <c r="E22" s="17">
         <v>43269</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>21</v>
       </c>
       <c r="G22" t="s">
@@ -1053,10 +1136,17 @@
         <v>24</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="18">
+      <c r="D24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="19">
+        <v>43271</v>
+      </c>
+      <c r="F24" s="16">
         <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">

--- a/correcciones.xlsx
+++ b/correcciones.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Estudios posteriores: definirlos más específicamente.  Enfocarlos en los hallazgos del estudio.</t>
   </si>
@@ -194,7 +194,16 @@
     <t>Se agrego un parrafo de explicación sobre las variables cualitativas a utilizarse para las pruebas de usuario para ser más explicito</t>
   </si>
   <si>
-    <t>Se restructuro toda la parte de resultados para la fase exploratoria</t>
+    <t>78 - 82</t>
+  </si>
+  <si>
+    <t>Se añadio detalles especificos por tipo de usuario sobre las pruebas realizadas</t>
+  </si>
+  <si>
+    <t>39-52</t>
+  </si>
+  <si>
+    <t>Se restructuro toda la parte de resultados para la fase exploratoria para clasificarlo por temas tocados</t>
   </si>
 </sst>
 </file>
@@ -317,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -366,7 +375,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,15 +946,17 @@
       <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="17">
-        <v>43272</v>
-      </c>
-      <c r="F13" s="22">
+        <v>43276</v>
+      </c>
+      <c r="F13" s="23">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -994,10 +1006,17 @@
       <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="18">
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="17">
+        <v>43272</v>
+      </c>
+      <c r="F16" s="16">
         <v>15</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="38" x14ac:dyDescent="0.25">

--- a/correcciones.xlsx
+++ b/correcciones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-26660" yWindow="440" windowWidth="25440" windowHeight="14920"/>
+    <workbookView xWindow="-26860" yWindow="440" windowWidth="25440" windowHeight="14920"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Estudios posteriores: definirlos más específicamente.  Enfocarlos en los hallazgos del estudio.</t>
   </si>
@@ -146,42 +146,9 @@
     <t>Nº</t>
   </si>
   <si>
-    <t>Se especifico acerca de la complejidad de medición de calidad y como reclamos brinda un acercamiento a ello</t>
-  </si>
-  <si>
-    <t>29, 30, 33, 35</t>
-  </si>
-  <si>
-    <t>Se amplio la necesidad de un sistema unificado que no fuera exclusivamente informatico para el manejo de reclamos a nivel de red MINSA</t>
-  </si>
-  <si>
-    <t>54-59</t>
-  </si>
-  <si>
-    <t>19, 21, 25, 27, 28, 29, 52, 80</t>
-  </si>
-  <si>
-    <t>A lo largo del documento se cambio 'sistema' por 'software' donde se necesitaba</t>
-  </si>
-  <si>
-    <t>71-74</t>
-  </si>
-  <si>
-    <t>Se añadio explicaciones detalladas a la creación de cada pantalla</t>
-  </si>
-  <si>
-    <t>82-85</t>
-  </si>
-  <si>
-    <t>Se explico a detalle sistemas analogos presentados en latinoamerica para recoleccion de reclamos o peticiones en salud.</t>
-  </si>
-  <si>
     <t>Marco Teorico / Discusión</t>
   </si>
   <si>
-    <t>24-25 / 82-85</t>
-  </si>
-  <si>
     <t>Marco Teorico: Se agrego parrafo sobre busqueda bibliografica de sistemas similares. Discusión: Se agrego en extensión explicación sobre la funcionalidad de dos sistemas simialres presentados en latinoamerica.</t>
   </si>
   <si>
@@ -191,19 +158,85 @@
     <t>17-18</t>
   </si>
   <si>
-    <t>Se agrego un parrafo de explicación sobre las variables cualitativas a utilizarse para las pruebas de usuario para ser más explicito</t>
-  </si>
-  <si>
-    <t>78 - 82</t>
-  </si>
-  <si>
     <t>Se añadio detalles especificos por tipo de usuario sobre las pruebas realizadas</t>
   </si>
   <si>
-    <t>39-52</t>
-  </si>
-  <si>
     <t>Se restructuro toda la parte de resultados para la fase exploratoria para clasificarlo por temas tocados</t>
+  </si>
+  <si>
+    <t>Se especifico acerca de la complejidad de medición de calidad y como reclamos brinda un acercamiento a medir calidad</t>
+  </si>
+  <si>
+    <t>Se agregó un parrafo donde especificando lo solicitado</t>
+  </si>
+  <si>
+    <t>Se agregó un parrafo de explicación sobre las variables cualitativas a utilizarse para las pruebas de usuario</t>
+  </si>
+  <si>
+    <t>Se especificó la cantidad de usuarios o el tipo de usuario requerido en dicho paso para dar más detalle a lo largo del documento</t>
+  </si>
+  <si>
+    <t>30, 31, 34, 36</t>
+  </si>
+  <si>
+    <t>38-52</t>
+  </si>
+  <si>
+    <t>52-57</t>
+  </si>
+  <si>
+    <t>Se estructuró la tabla en 2 tablas para separar y mostrar de forma más ordenada los objetivos encontrados y las dificultades por tipo de usuario</t>
+  </si>
+  <si>
+    <t>69-72</t>
+  </si>
+  <si>
+    <t>Se añadio explicaciones detalladas en todo el proceso de diseño del software planteado</t>
+  </si>
+  <si>
+    <t>75 - 80</t>
+  </si>
+  <si>
+    <t>76, 78, 80</t>
+  </si>
+  <si>
+    <t>Se agregaron citas extraidas de los videos grabados durante las pruebas con los 3 tipos de usuario</t>
+  </si>
+  <si>
+    <t>26 / 85-89</t>
+  </si>
+  <si>
+    <t>96-97</t>
+  </si>
+  <si>
+    <t>88-89</t>
+  </si>
+  <si>
+    <t>85-89</t>
+  </si>
+  <si>
+    <t>Se explicó a detalle sistemas analogos presentados en latinoamerica para recoleccion de reclamos o peticiones en salud.</t>
+  </si>
+  <si>
+    <t>Se amplió la necesidad de un sistema unificado que no fuera exclusivamente informatico para el manejo de reclamos a nivel de red MINSA</t>
+  </si>
+  <si>
+    <t>A lo largo del documento se cambio 'sistema' por 'software' donde se necesitaba, se especificó a cual usuario se hacia referencia y que se analizó la red de establecimientos de salud del MINSA en lugar del sistema de salud del Perú</t>
+  </si>
+  <si>
+    <t>Se agregó sección de limitaciones dentro de Discusión</t>
+  </si>
+  <si>
+    <t>Se agregó en sección de limitaciones dentro de Discusión</t>
+  </si>
+  <si>
+    <t>Se cambio la recomendación para hacerlo más especifico</t>
+  </si>
+  <si>
+    <t>Se retiró de las recomendaciones</t>
+  </si>
+  <si>
+    <t>Se especificó las variables a explorar en futuros estudios</t>
   </si>
 </sst>
 </file>
@@ -241,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,18 +296,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -365,18 +386,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,13 +757,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="3">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E2" s="15">
         <v>43265</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="19">
         <v>1</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -753,16 +778,19 @@
         <v>31</v>
       </c>
       <c r="D3" s="3">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E3" s="15">
         <v>43265</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -771,16 +799,19 @@
         <v>32</v>
       </c>
       <c r="D4" s="3">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E4" s="15">
         <v>43265</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G4" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="49" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -789,16 +820,16 @@
         <v>31</v>
       </c>
       <c r="D5" s="3">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E5" s="15">
         <v>43266</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="19">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
+      <c r="G5" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="76" x14ac:dyDescent="0.25">
@@ -809,19 +840,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="17">
+        <v>42</v>
+      </c>
+      <c r="E6" s="16">
         <v>43272</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="19">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>54</v>
+      <c r="G6" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.25">
@@ -835,14 +866,14 @@
       <c r="D7" s="5">
         <v>7</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>43266</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="19">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
+      <c r="G7" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.25">
@@ -854,13 +885,16 @@
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="17">
+        <v>49</v>
+      </c>
+      <c r="E8" s="16">
         <v>43266</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="19">
         <v>7</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.25">
@@ -869,19 +903,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="17">
+        <v>58</v>
+      </c>
+      <c r="E9" s="16">
         <v>43271</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="19">
         <v>8</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>51</v>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -893,13 +927,16 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>82</v>
-      </c>
-      <c r="E10" s="17">
+        <v>96</v>
+      </c>
+      <c r="E10" s="16">
         <v>43266</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="19">
         <v>9</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="76" x14ac:dyDescent="0.25">
@@ -911,13 +948,16 @@
         <v>34</v>
       </c>
       <c r="D11" s="5">
-        <v>83</v>
-      </c>
-      <c r="E11" s="17">
+        <v>97</v>
+      </c>
+      <c r="E11" s="16">
         <v>43269</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="19">
         <v>10</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -929,16 +969,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="5">
-        <v>83</v>
-      </c>
-      <c r="E12" s="17">
+        <v>97</v>
+      </c>
+      <c r="E12" s="16">
         <v>43269</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="G12" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="49" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -947,19 +990,19 @@
         <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="17">
+        <v>50</v>
+      </c>
+      <c r="E13" s="16">
         <v>43276</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="20">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="G13" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="49" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -968,13 +1011,16 @@
         <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="17">
+        <v>51</v>
+      </c>
+      <c r="E14" s="16">
         <v>43269</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="19">
         <v>13</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -986,19 +1032,19 @@
         <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="17">
+        <v>53</v>
+      </c>
+      <c r="E15" s="16">
         <v>43271</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="19">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G15" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="38" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>15</v>
@@ -1009,17 +1055,17 @@
       <c r="D16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>43272</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="19">
         <v>15</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="G16" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="49" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>16</v>
@@ -1027,10 +1073,17 @@
       <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="18">
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="16">
+        <v>43276</v>
+      </c>
+      <c r="F17" s="19">
         <v>16</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -1041,14 +1094,17 @@
       <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5">
-        <v>82</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="16">
         <v>43266</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="19">
         <v>17</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="65" x14ac:dyDescent="0.25">
@@ -1059,17 +1115,17 @@
       <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5">
-        <v>86</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="D19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="16">
         <v>43271</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="19">
         <v>18</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>52</v>
+      <c r="G19" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1081,12 +1137,12 @@
         <v>36</v>
       </c>
       <c r="D20" s="5">
-        <v>84</v>
-      </c>
-      <c r="E20" s="17">
+        <v>101</v>
+      </c>
+      <c r="E20" s="16">
         <v>43265</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="19">
         <v>19</v>
       </c>
     </row>
@@ -1099,16 +1155,16 @@
         <v>36</v>
       </c>
       <c r="D21" s="5">
-        <v>85</v>
-      </c>
-      <c r="E21" s="17">
+        <v>102</v>
+      </c>
+      <c r="E21" s="16">
         <v>43265</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -1116,17 +1172,15 @@
       <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="4"/>
+      <c r="E22" s="16">
         <v>43269</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="19">
         <v>21</v>
       </c>
-      <c r="G22" t="s">
-        <v>44</v>
+      <c r="G22" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -1142,30 +1196,33 @@
       <c r="D23" s="8">
         <v>13</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>43269</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G23" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="49" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="19">
+        <v>61</v>
+      </c>
+      <c r="E24" s="17">
         <v>43271</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="19">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
-        <v>48</v>
+      <c r="G24" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">

--- a/correcciones.xlsx
+++ b/correcciones.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$E$24</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
   <si>
     <t>Estudios posteriores: definirlos más específicamente.  Enfocarlos en los hallazgos del estudio.</t>
   </si>
@@ -237,6 +238,9 @@
   </si>
   <si>
     <t>Se especificó las variables a explorar en futuros estudios</t>
+  </si>
+  <si>
+    <t>Nota</t>
   </si>
 </sst>
 </file>
@@ -716,13 +720,14 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,4 +1242,282 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="74.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="38" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>99</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>98</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="95" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>99</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="95" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="76" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="76" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="133" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>96</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="76" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>97</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="38" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>97</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="95" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="38" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="95" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>101</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="133" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="38" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="8">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="76" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+</worksheet>
 </file>